--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>728854.5698769478</v>
+        <v>794636.3727393824</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298026</v>
+        <v>404724.2260944797</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958494</v>
+        <v>11762410.58428958</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7710926.475316703</v>
+        <v>7703596.185523</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
@@ -676,7 +676,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>134.667568689459</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>112.953014435824</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>69.90197782146217</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>142.8673256144868</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.01986919358308</v>
+        <v>61.07562230169311</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1296,49 +1296,49 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2926691378088</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>74.57910421667664</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="12">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1145294387709</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>146.6195776571245</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>193.8209438199398</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>128.9046236721933</v>
       </c>
       <c r="I14" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>67.62176764444244</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>12.68778453280337</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1697,13 +1697,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>66.63898038907038</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>56.66199767592525</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772186</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T15" t="n">
-        <v>197.9863995095175</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9058271976456</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V15" t="n">
-        <v>214.2181104189978</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>117.5892814194186</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>193.8209438199398</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>173.3162793013139</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393328</v>
+        <v>67.62176764444244</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U17" t="n">
-        <v>92.22044651373946</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.27666136637444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>118.7001499689964</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9058271976456</v>
+        <v>192.0515124126158</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>30.29006897409849</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1988625129318</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>74.2493402431993</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I20" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.4204102339333</v>
+        <v>67.62176764444244</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.479051540012899</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>89.10210518197233</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.27666136637444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T21" t="n">
-        <v>118.7001499689964</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9058271976456</v>
+        <v>170.0237980567732</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>149.9864429006004</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>193.8209438199398</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>171.2847114697555</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -2374,19 +2374,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>150.1306450099548</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H24" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.85099796338663</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>338.3682296398984</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>361.2524260279245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>94.63926978364022</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>166.0588731052221</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>26.52297435934271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>85.87170836083649</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>21.21133664189215</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>72.767692014606</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>68.19029374363595</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>10.70611463921582</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>302.3551236970663</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>137.5004243085498</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>120.4202303616998</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>57.28111013508705</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>59.66385641544537</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>201.8547795715933</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.80587069293221</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3830,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933832</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>41.03250833502995</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>216.5532452926075</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>189.290623262495</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4036,16 +4036,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>70.06474167892972</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034768</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="W46" t="n">
-        <v>275.1622158054969</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4312,16 +4312,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.0631229240681</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C3" t="n">
-        <v>156.0631229240681</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D3" t="n">
-        <v>156.0631229240681</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0631229240681</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,43 +4418,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>849.9632015350564</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>849.9632015350564</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>849.9632015350564</v>
       </c>
       <c r="V3" t="n">
-        <v>399.5118995681682</v>
+        <v>849.9632015350564</v>
       </c>
       <c r="W3" t="n">
-        <v>156.0631229240681</v>
+        <v>849.9632015350564</v>
       </c>
       <c r="X3" t="n">
-        <v>156.0631229240681</v>
+        <v>849.9632015350564</v>
       </c>
       <c r="Y3" t="n">
-        <v>156.0631229240681</v>
+        <v>642.2029027701026</v>
       </c>
     </row>
     <row r="4">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>274.7999090013961</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>227.8867759685313</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.0360370837871</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C8" t="n">
-        <v>274.0360370837871</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D8" t="n">
-        <v>274.0360370837871</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E8" t="n">
-        <v>274.0360370837871</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F8" t="n">
-        <v>274.0360370837871</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G8" t="n">
-        <v>30.58726043968704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>30.58726043968704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>517.4848137278872</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V8" t="n">
-        <v>517.4848137278872</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W8" t="n">
-        <v>517.4848137278872</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X8" t="n">
-        <v>274.0360370837871</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.0360370837871</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M9" t="n">
         <v>304.2053859195205</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>866.0572876383301</v>
+        <v>902.3646077311482</v>
       </c>
       <c r="S9" t="n">
-        <v>866.0572876383301</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="T9" t="n">
-        <v>663.8706929970961</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="U9" t="n">
-        <v>435.6470747334852</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="V9" t="n">
-        <v>435.6470747334852</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -4986,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1615.705176284148</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C11" t="n">
-        <v>1615.705176284148</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D11" t="n">
-        <v>1257.439477677397</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E11" t="n">
-        <v>871.6512250791529</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F11" t="n">
-        <v>460.6653202895453</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856226</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953284</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803413</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.883192613821</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300944</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170708</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755287</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.393835800051</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>2022.100492129412</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>2022.100492129412</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>2022.100492129412</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>1946.768063627718</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>1615.705176284148</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>1615.705176284148</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>1615.705176284148</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y11" t="n">
-        <v>1615.705176284148</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>524.8127706638348</v>
+        <v>453.8621476071925</v>
       </c>
       <c r="C12" t="n">
-        <v>350.3597413827078</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="D12" t="n">
-        <v>201.4253317214565</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="E12" t="n">
-        <v>42.18787671600103</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F12" t="n">
-        <v>42.18787671600103</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G12" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147166</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>303.7504955284377</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>649.8831383448791</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>827.1688172098175</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N12" t="n">
-        <v>1310.841828599075</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O12" t="n">
-        <v>1686.892462576445</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P12" t="n">
-        <v>1971.703181875404</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.393835800051</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.393835800051</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1946.116217237204</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>1746.129955106379</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>1598.029371614334</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V12" t="n">
-        <v>1362.877263382591</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W12" t="n">
-        <v>1108.63990665439</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="X12" t="n">
-        <v>900.7884064488567</v>
+        <v>661.6224463721464</v>
       </c>
       <c r="Y12" t="n">
-        <v>693.0281076839028</v>
+        <v>453.8621476071925</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701801</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>166.2559978081031</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053806</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503603</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871618</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842139</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842139</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842139</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842139</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842139</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>331.6050467529616</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>331.6050467529616</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.18787671600103</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1353.669904581597</v>
+        <v>1292.329198562284</v>
       </c>
       <c r="C14" t="n">
-        <v>984.7073876411853</v>
+        <v>923.366681621872</v>
       </c>
       <c r="D14" t="n">
-        <v>626.4416890344348</v>
+        <v>565.1009830151215</v>
       </c>
       <c r="E14" t="n">
-        <v>626.4416890344348</v>
+        <v>179.3127304168773</v>
       </c>
       <c r="F14" t="n">
-        <v>215.4557842448272</v>
+        <v>179.3127304168773</v>
       </c>
       <c r="G14" t="n">
-        <v>215.4557842448272</v>
+        <v>179.3127304168773</v>
       </c>
       <c r="H14" t="n">
-        <v>215.4557842448272</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856226</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953284</v>
+        <v>415.1943883367682</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803413</v>
+        <v>799.8264852341945</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.883192613821</v>
+        <v>1244.410349176442</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300944</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170708</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755287</v>
+        <v>2325.213548478439</v>
       </c>
       <c r="Q14" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R14" t="n">
-        <v>2109.393835800051</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="S14" t="n">
-        <v>2109.393835800051</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="T14" t="n">
-        <v>2096.577891827523</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="U14" t="n">
-        <v>2096.577891827523</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="V14" t="n">
-        <v>2096.577891827523</v>
+        <v>2055.934288799175</v>
       </c>
       <c r="W14" t="n">
-        <v>1743.809236557409</v>
+        <v>2055.934288799175</v>
       </c>
       <c r="X14" t="n">
-        <v>1743.809236557409</v>
+        <v>1682.468530538095</v>
       </c>
       <c r="Y14" t="n">
-        <v>1353.669904581597</v>
+        <v>1292.329198562284</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>671.3473286369498</v>
+        <v>737.0662297124688</v>
       </c>
       <c r="C15" t="n">
-        <v>496.8942993558228</v>
+        <v>562.6132004313419</v>
       </c>
       <c r="D15" t="n">
-        <v>347.9598896945715</v>
+        <v>413.6787907700906</v>
       </c>
       <c r="E15" t="n">
-        <v>188.7224346891161</v>
+        <v>254.4413357646351</v>
       </c>
       <c r="F15" t="n">
-        <v>42.18787671600103</v>
+        <v>254.4413357646351</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600103</v>
+        <v>116.4181412420057</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J15" t="n">
-        <v>91.99734226147166</v>
+        <v>113.8920892923635</v>
       </c>
       <c r="K15" t="n">
-        <v>303.7504955284377</v>
+        <v>351.2426098932702</v>
       </c>
       <c r="L15" t="n">
-        <v>649.8831383448791</v>
+        <v>705.4886626713505</v>
       </c>
       <c r="M15" t="n">
-        <v>1105.782828129934</v>
+        <v>1201.553491139127</v>
       </c>
       <c r="N15" t="n">
-        <v>1589.455839519192</v>
+        <v>1726.454692916938</v>
       </c>
       <c r="O15" t="n">
-        <v>1965.506473496562</v>
+        <v>2140.221066519054</v>
       </c>
       <c r="P15" t="n">
-        <v>1971.703181875404</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R15" t="n">
-        <v>2109.393835800051</v>
+        <v>2398.06765085842</v>
       </c>
       <c r="S15" t="n">
-        <v>1946.116217237204</v>
+        <v>2237.794239814737</v>
       </c>
       <c r="T15" t="n">
-        <v>1746.129955106379</v>
+        <v>2038.45989426245</v>
       </c>
       <c r="U15" t="n">
-        <v>1517.942250866333</v>
+        <v>1810.282830662968</v>
       </c>
       <c r="V15" t="n">
-        <v>1301.560321150173</v>
+        <v>1575.130722431225</v>
       </c>
       <c r="W15" t="n">
-        <v>1047.322964421972</v>
+        <v>1320.893365703024</v>
       </c>
       <c r="X15" t="n">
-        <v>1047.322964421972</v>
+        <v>1113.041865497491</v>
       </c>
       <c r="Y15" t="n">
-        <v>839.5626656570178</v>
+        <v>905.2815667325369</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.18787671600103</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="C16" t="n">
-        <v>42.18787671600103</v>
+        <v>476.5909948789905</v>
       </c>
       <c r="D16" t="n">
-        <v>42.18787671600103</v>
+        <v>326.4743554666547</v>
       </c>
       <c r="E16" t="n">
-        <v>42.18787671600103</v>
+        <v>326.4743554666547</v>
       </c>
       <c r="F16" t="n">
-        <v>42.18787671600103</v>
+        <v>326.4743554666547</v>
       </c>
       <c r="G16" t="n">
-        <v>42.18787671600103</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701801</v>
+        <v>94.61295399245033</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081031</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053806</v>
+        <v>338.7052604257291</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503603</v>
+        <v>471.3735460023452</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871618</v>
+        <v>577.8978852021171</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="U16" t="n">
-        <v>331.6050467529616</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="V16" t="n">
-        <v>331.6050467529616</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="W16" t="n">
-        <v>42.18787671600103</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="X16" t="n">
-        <v>42.18787671600103</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.18787671600103</v>
+        <v>645.5271778068974</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>871.6512250791529</v>
+        <v>1028.136397925592</v>
       </c>
       <c r="C17" t="n">
-        <v>871.6512250791529</v>
+        <v>1028.136397925592</v>
       </c>
       <c r="D17" t="n">
-        <v>871.6512250791529</v>
+        <v>1028.136397925592</v>
       </c>
       <c r="E17" t="n">
-        <v>871.6512250791529</v>
+        <v>642.3481453273478</v>
       </c>
       <c r="F17" t="n">
-        <v>460.6653202895453</v>
+        <v>467.2811965381418</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856225</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953284</v>
+        <v>415.1943883367683</v>
       </c>
       <c r="L17" t="n">
-        <v>683.321988080341</v>
+        <v>799.8264852341947</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.883192613821</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300943</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170708</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755287</v>
+        <v>2325.213548478439</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129412</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="S17" t="n">
-        <v>2022.100492129412</v>
+        <v>2206.003582293108</v>
       </c>
       <c r="T17" t="n">
-        <v>2022.100492129412</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="U17" t="n">
-        <v>1928.948525953917</v>
+        <v>1732.665043530243</v>
       </c>
       <c r="V17" t="n">
-        <v>1597.885638610347</v>
+        <v>1401.602156186672</v>
       </c>
       <c r="W17" t="n">
-        <v>1245.116983340233</v>
+        <v>1401.602156186672</v>
       </c>
       <c r="X17" t="n">
-        <v>871.6512250791529</v>
+        <v>1028.136397925592</v>
       </c>
       <c r="Y17" t="n">
-        <v>871.6512250791529</v>
+        <v>1028.136397925592</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>524.8127706638348</v>
+        <v>988.7596187630173</v>
       </c>
       <c r="C18" t="n">
-        <v>350.3597413827078</v>
+        <v>814.3065894818903</v>
       </c>
       <c r="D18" t="n">
-        <v>201.4253317214565</v>
+        <v>665.3721798206391</v>
       </c>
       <c r="E18" t="n">
-        <v>42.18787671600103</v>
+        <v>506.1347248151836</v>
       </c>
       <c r="F18" t="n">
-        <v>42.18787671600103</v>
+        <v>359.6001668420686</v>
       </c>
       <c r="G18" t="n">
-        <v>42.18787671600103</v>
+        <v>221.5769723194392</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600103</v>
+        <v>115.0420614211007</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J18" t="n">
-        <v>91.99734226147166</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K18" t="n">
-        <v>303.7504955284377</v>
+        <v>286.456560439811</v>
       </c>
       <c r="L18" t="n">
-        <v>371.269127424762</v>
+        <v>667.0080225480667</v>
       </c>
       <c r="M18" t="n">
-        <v>827.1688172098175</v>
+        <v>1163.072851015844</v>
       </c>
       <c r="N18" t="n">
-        <v>1310.841828599075</v>
+        <v>1687.974052793654</v>
       </c>
       <c r="O18" t="n">
-        <v>1686.892462576445</v>
+        <v>2101.74042639577</v>
       </c>
       <c r="P18" t="n">
-        <v>1971.703181875404</v>
+        <v>2416.821351821929</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="S18" t="n">
-        <v>1946.116217237204</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="T18" t="n">
-        <v>1826.21707585438</v>
+        <v>2255.967646392926</v>
       </c>
       <c r="U18" t="n">
-        <v>1598.029371614334</v>
+        <v>2061.976219713516</v>
       </c>
       <c r="V18" t="n">
-        <v>1362.877263382591</v>
+        <v>1826.824111481774</v>
       </c>
       <c r="W18" t="n">
-        <v>1108.63990665439</v>
+        <v>1572.586754753572</v>
       </c>
       <c r="X18" t="n">
-        <v>900.7884064488567</v>
+        <v>1364.735254548039</v>
       </c>
       <c r="Y18" t="n">
-        <v>693.0281076839028</v>
+        <v>1156.974955783085</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3837778842139</v>
+        <v>354.5872510257584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3837778842139</v>
+        <v>354.5872510257584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3837778842139</v>
+        <v>354.5872510257584</v>
       </c>
       <c r="E19" t="n">
-        <v>379.4706843018208</v>
+        <v>354.5872510257584</v>
       </c>
       <c r="F19" t="n">
-        <v>232.5807368039105</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="G19" t="n">
-        <v>201.9847075371443</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701802</v>
+        <v>94.61295399245033</v>
       </c>
       <c r="L19" t="n">
-        <v>166.2559978081031</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053806</v>
+        <v>338.7052604257291</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503603</v>
+        <v>471.3735460023452</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871618</v>
+        <v>577.8978852021171</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842139</v>
+        <v>429.5865846047476</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842139</v>
+        <v>429.5865846047476</v>
       </c>
       <c r="U19" t="n">
-        <v>527.3837778842139</v>
+        <v>429.5865846047476</v>
       </c>
       <c r="V19" t="n">
-        <v>527.3837778842139</v>
+        <v>429.5865846047476</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3837778842139</v>
+        <v>429.5865846047476</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3837778842139</v>
+        <v>429.5865846047476</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3837778842139</v>
+        <v>354.5872510257584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>966.3882170572355</v>
+        <v>1175.239391014126</v>
       </c>
       <c r="C20" t="n">
-        <v>966.3882170572355</v>
+        <v>1175.239391014126</v>
       </c>
       <c r="D20" t="n">
-        <v>966.3882170572355</v>
+        <v>1175.239391014126</v>
       </c>
       <c r="E20" t="n">
-        <v>966.3882170572355</v>
+        <v>789.4511384158816</v>
       </c>
       <c r="F20" t="n">
-        <v>966.3882170572355</v>
+        <v>378.465233626274</v>
       </c>
       <c r="G20" t="n">
-        <v>547.9107734836912</v>
+        <v>378.465233626274</v>
       </c>
       <c r="H20" t="n">
-        <v>215.4557842448272</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856225</v>
+        <v>147.2929132168158</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953285</v>
+        <v>415.194388336768</v>
       </c>
       <c r="L20" t="n">
-        <v>683.321988080341</v>
+        <v>799.8264852341945</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.883192613821</v>
+        <v>1244.410349176442</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300943</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170708</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755287</v>
+        <v>2325.213548478439</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R20" t="n">
-        <v>2022.100492129412</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="S20" t="n">
-        <v>1834.218536131508</v>
+        <v>2206.003582293108</v>
       </c>
       <c r="T20" t="n">
-        <v>1613.335429826068</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="U20" t="n">
-        <v>1359.532553626421</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="V20" t="n">
-        <v>1352.988057121357</v>
+        <v>1655.380849436374</v>
       </c>
       <c r="W20" t="n">
-        <v>1352.988057121357</v>
+        <v>1655.380849436374</v>
       </c>
       <c r="X20" t="n">
-        <v>1352.988057121357</v>
+        <v>1565.378722989938</v>
       </c>
       <c r="Y20" t="n">
-        <v>1352.988057121357</v>
+        <v>1175.239391014126</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>524.8127706638348</v>
+        <v>850.7364242403879</v>
       </c>
       <c r="C21" t="n">
-        <v>350.3597413827078</v>
+        <v>676.2833949592609</v>
       </c>
       <c r="D21" t="n">
-        <v>201.4253317214565</v>
+        <v>527.3489852980097</v>
       </c>
       <c r="E21" t="n">
-        <v>42.18787671600103</v>
+        <v>368.1115302925542</v>
       </c>
       <c r="F21" t="n">
-        <v>42.18787671600103</v>
+        <v>221.5769723194392</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600103</v>
+        <v>221.5769723194392</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600103</v>
+        <v>115.0420614211007</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K21" t="n">
-        <v>42.18787671600103</v>
+        <v>286.456560439811</v>
       </c>
       <c r="L21" t="n">
-        <v>371.269127424762</v>
+        <v>667.0080225480667</v>
       </c>
       <c r="M21" t="n">
-        <v>827.1688172098175</v>
+        <v>1163.072851015844</v>
       </c>
       <c r="N21" t="n">
-        <v>1310.841828599075</v>
+        <v>1687.974052793654</v>
       </c>
       <c r="O21" t="n">
-        <v>1686.892462576445</v>
+        <v>2101.74042639577</v>
       </c>
       <c r="P21" t="n">
-        <v>1971.703181875404</v>
+        <v>2416.821351821929</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R21" t="n">
-        <v>2109.393835800051</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="S21" t="n">
-        <v>1946.116217237204</v>
+        <v>2295.02858090153</v>
       </c>
       <c r="T21" t="n">
-        <v>1826.21707585438</v>
+        <v>2095.694235349244</v>
       </c>
       <c r="U21" t="n">
-        <v>1598.029371614334</v>
+        <v>1923.953025190887</v>
       </c>
       <c r="V21" t="n">
-        <v>1362.877263382591</v>
+        <v>1688.800916959144</v>
       </c>
       <c r="W21" t="n">
-        <v>1108.63990665439</v>
+        <v>1434.563560230943</v>
       </c>
       <c r="X21" t="n">
-        <v>900.7884064488567</v>
+        <v>1226.71206002541</v>
       </c>
       <c r="Y21" t="n">
-        <v>693.0281076839028</v>
+        <v>1018.951761260456</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.18787671600103</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="C22" t="n">
-        <v>42.18787671600103</v>
+        <v>494.0257203315434</v>
       </c>
       <c r="D22" t="n">
-        <v>42.18787671600103</v>
+        <v>343.9090809192077</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600103</v>
+        <v>195.9959873368146</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600103</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701801</v>
+        <v>94.61295399245033</v>
       </c>
       <c r="L22" t="n">
-        <v>166.2559978081031</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053806</v>
+        <v>338.7052604257291</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503603</v>
+        <v>471.3735460023452</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871618</v>
+        <v>577.8978852021171</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="S22" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="T22" t="n">
-        <v>527.3837778842139</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="U22" t="n">
-        <v>331.6050467529616</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="V22" t="n">
-        <v>331.6050467529616</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="W22" t="n">
-        <v>42.18787671600103</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="X22" t="n">
-        <v>42.18787671600103</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.18787671600103</v>
+        <v>645.5271778068974</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>923.1150787952333</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="C23" t="n">
-        <v>554.1525618548217</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D23" t="n">
-        <v>554.1525618548217</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E23" t="n">
-        <v>554.1525618548217</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F23" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6022,19 +6022,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.483574129469</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859355</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X23" t="n">
-        <v>1309.714918859355</v>
+        <v>1521.073833303754</v>
       </c>
       <c r="Y23" t="n">
-        <v>1309.714918859355</v>
+        <v>1369.426717132083</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615927</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.317569050019</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>688.885551920185</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C25" t="n">
-        <v>519.9493689922781</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D25" t="n">
-        <v>369.8327295799423</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>369.8327295799423</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036444</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>987.3573795552941</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C26" t="n">
-        <v>618.3948626148824</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D26" t="n">
-        <v>618.3948626148824</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E26" t="n">
-        <v>618.3948626148824</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6256,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656313</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2112.324418312743</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W26" t="n">
-        <v>2112.324418312743</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X26" t="n">
-        <v>1738.858660051663</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y26" t="n">
-        <v>1373.957219619416</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.5382038240414</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5382038240414</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>149.5382038240414</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>149.5382038240414</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.955373861002</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>438.955373861002</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240414</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240414</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5382038240414</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1536.177557778964</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="C29" t="n">
-        <v>1536.177557778964</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.911859172213</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739691</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6490,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V29" t="n">
-        <v>2302.336936304455</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W29" t="n">
-        <v>1949.568281034341</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X29" t="n">
-        <v>1949.568281034341</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y29" t="n">
-        <v>1922.777397843086</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
         <v>713.8062203571349</v>
@@ -6569,25 +6569,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351.9727148150932</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C31" t="n">
-        <v>351.9727148150932</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D31" t="n">
-        <v>201.8560754027575</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6657,16 +6657,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>641.3898848520539</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>351.9727148150932</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>351.9727148150932</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>351.9727148150932</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1219.679656148628</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C32" t="n">
-        <v>850.7171392082162</v>
+        <v>904.3182872793529</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>904.3182872793529</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W32" t="n">
-        <v>2369.884586449641</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X32" t="n">
-        <v>1996.418828188561</v>
+        <v>2050.019976259698</v>
       </c>
       <c r="Y32" t="n">
-        <v>1606.27949621275</v>
+        <v>1659.880644283886</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
         <v>713.8062203571349</v>
@@ -6797,7 +6797,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6806,25 +6806,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U33" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>211.6471865296039</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C34" t="n">
-        <v>211.6471865296039</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D34" t="n">
-        <v>211.6471865296039</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E34" t="n">
-        <v>211.6471865296039</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F34" t="n">
-        <v>64.75723903169356</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>211.6471865296039</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X34" t="n">
-        <v>211.6471865296039</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y34" t="n">
-        <v>211.6471865296039</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1860.708406770827</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C35" t="n">
-        <v>1860.708406770827</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D35" t="n">
-        <v>1502.442708164076</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2247.308246834948</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2247.308246834948</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X35" t="n">
-        <v>2247.308246834948</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y35" t="n">
-        <v>2247.308246834948</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1251.855211652197</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C38" t="n">
-        <v>882.8926947117852</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="D38" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X38" t="n">
-        <v>1251.855211652197</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y38" t="n">
-        <v>1251.855211652197</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>667.8624625746712</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U40" t="n">
-        <v>667.8624625746712</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>667.8624625746712</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1584.923258067584</v>
+        <v>1799.76938401301</v>
       </c>
       <c r="C41" t="n">
-        <v>1215.960741127172</v>
+        <v>1799.76938401301</v>
       </c>
       <c r="D41" t="n">
-        <v>857.6950425204218</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036444</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V41" t="n">
-        <v>1993.54646147304</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="W41" t="n">
-        <v>1993.54646147304</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="X41" t="n">
-        <v>1620.08070321196</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="Y41" t="n">
-        <v>1584.923258067584</v>
+        <v>1799.76938401301</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7490,25 +7490,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="C43" t="n">
-        <v>559.1928012785273</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="D43" t="n">
-        <v>517.7458231623355</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799423</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036444</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>509.3883323957195</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1759.555763042629</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C44" t="n">
-        <v>1759.555763042629</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D44" t="n">
-        <v>1401.290064435878</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E44" t="n">
         <v>1210.087414675782</v>
@@ -7657,7 +7657,7 @@
         <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7684,16 +7684,16 @@
         <v>2443.387305656313</v>
       </c>
       <c r="V44" t="n">
-        <v>2112.324418312743</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W44" t="n">
-        <v>1759.555763042629</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="X44" t="n">
-        <v>1759.555763042629</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y44" t="n">
-        <v>1759.555763042629</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7739,13 +7739,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7769,7 +7769,7 @@
         <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
         <v>53.94298182036444</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W46" t="n">
-        <v>222.8791647482714</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,7 +8309,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>184.2767698912958</v>
+        <v>277.3705002792437</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>344.2692247679284</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>37.0344747812332</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>50.55659572925428</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>60.65058134701567</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>89.41205144475504</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>89.42592918711696</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033751</v>
+        <v>60.65058134701567</v>
       </c>
       <c r="K21" t="n">
-        <v>50.57316300554223</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>353.6167169118629</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>89.42592918711696</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747125</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>275.044284299266</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928319</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
@@ -22564,7 +22564,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22625,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>10.40164370392489</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>58.73015666801385</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22792,16 +22792,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>43.24093381563971</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>181.7930053394574</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23083,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>206.3736431029262</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.137964959060056</v>
+        <v>39.08221185095002</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23165,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>138.6917128032271</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379248</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>176.6857432209737</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>27.59396954954488</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245151</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207137</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>79.28624954052108</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.537897457236</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022416</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385097</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>156.9211815276446</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>216.1206161765721</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>226.0096940321479</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>92.47337197830262</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>197.1609781773028</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379248</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T14" t="n">
-        <v>205.9864907095826</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>107.0159873637655</v>
+        <v>38.83058140028474</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245151</v>
+        <v>65.27666136637444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23633,13 +23633,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>18.58247673042743</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.537897457236</v>
+        <v>49.81437650745286</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>141.8250664795777</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022416</v>
+        <v>51.83555490345137</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385097</v>
+        <v>36.9818822848714</v>
       </c>
       <c r="R16" t="n">
-        <v>156.9211815276446</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S16" t="n">
-        <v>216.1206161765721</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T16" t="n">
-        <v>226.0096940321479</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U16" t="n">
-        <v>92.47337197830262</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>233.5597664403975</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I17" t="n">
-        <v>171.5352284535379</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>159.0444009239109</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207137</v>
+        <v>56.66199767592525</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T18" t="n">
-        <v>79.28624954052111</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>33.84378055087174</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>137.2478284831375</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>141.8250664795777</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022416</v>
+        <v>51.83555490345137</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385097</v>
+        <v>36.9818822848714</v>
       </c>
       <c r="R19" t="n">
-        <v>156.9211815276446</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S19" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.0096940321479</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2943157982424</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>144.3353131088955</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V20" t="n">
-        <v>321.273206930122</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>280.6289954964967</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8030829366063</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207137</v>
+        <v>56.66199767592525</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>79.28624954052111</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>55.87149490671428</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>17.26037819802741</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.537897457236</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1988625129318</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I22" t="n">
-        <v>141.8250664795777</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022416</v>
+        <v>51.83555490345137</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385097</v>
+        <v>36.9818822848714</v>
       </c>
       <c r="R22" t="n">
-        <v>156.9211815276446</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0096940321479</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U22" t="n">
-        <v>92.47337197830262</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>235.591334271956</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>236.1072936460988</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.9809822185507</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,22 +24372,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>152.4187013741504</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>44.36561202358217</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>24.98551262812907</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>50.78177823929103</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>89.56002855569147</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>199.2140186657854</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24730,7 +24730,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>359.7149642967109</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24897,10 +24897,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>166.2659349629915</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>360.7190334303696</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>276.473276702807</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>78.24366890293322</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>156.6036876198351</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25128,16 +25128,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>80.37871796641423</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>244.429945763712</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25362,19 +25362,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>234.2628112589831</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>312.449990543382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25602,16 +25602,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>165.3712490426389</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>152.8282620490897</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>351.4320679631214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>107.5829646831824</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25842,7 +25842,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>69.72862894937023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>192.6397468097668</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>299.6663589995393</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26076,19 +26076,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>96.68503059263381</v>
       </c>
       <c r="W46" t="n">
-        <v>11.36078253109406</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457120.4842963798</v>
+        <v>457120.48429638</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457120.4842963798</v>
+        <v>457120.48429638</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670413.1503636527</v>
+        <v>485850.7333573399</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670413.1503636527</v>
+        <v>733948.665341974</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670413.1503636526</v>
+        <v>733948.6653419741</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670413.1503636527</v>
+        <v>733948.665341974</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778370.5146468752</v>
+        <v>778370.5146468754</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778370.5146468752</v>
+        <v>778370.5146468756</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468752</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468752</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778370.5146468756</v>
+        <v>778370.5146468752</v>
       </c>
     </row>
     <row r="15">
@@ -26322,16 +26322,16 @@
         <v>149544.6052781992</v>
       </c>
       <c r="E2" t="n">
-        <v>223045.8084776439</v>
+        <v>159463.6497950858</v>
       </c>
       <c r="F2" t="n">
-        <v>223045.8084776441</v>
+        <v>244933.9278895519</v>
       </c>
       <c r="G2" t="n">
-        <v>223045.808477644</v>
+        <v>244933.9278895519</v>
       </c>
       <c r="H2" t="n">
-        <v>223045.8084776439</v>
+        <v>244933.9278895519</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
@@ -26340,10 +26340,10 @@
         <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="L2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="L2" t="n">
-        <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
         <v>260237.3490141816</v>
@@ -26355,7 +26355,7 @@
         <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134256</v>
+        <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>326513.677765922</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.701511692</v>
+        <v>55256.55893426014</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871086</v>
+        <v>8757.582995213677</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>82704.25131371449</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
-        <v>26458.35591606915</v>
+        <v>25384.5047005482</v>
       </c>
       <c r="F4" t="n">
-        <v>26458.35591606915</v>
+        <v>26828.23226731028</v>
       </c>
       <c r="G4" t="n">
-        <v>26458.35591606915</v>
+        <v>26828.23226731028</v>
       </c>
       <c r="H4" t="n">
-        <v>26458.35591606915</v>
+        <v>26828.23226731028</v>
       </c>
       <c r="I4" t="n">
         <v>27086.83710496504</v>
@@ -26459,7 +26459,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="P4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730639</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730639</v>
+        <v>44420.7724568834</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730639</v>
+        <v>44420.7724568834</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730639</v>
+        <v>44420.7724568834</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17006.37384976994</v>
+        <v>-6010.16429173355</v>
       </c>
       <c r="C6" t="n">
-        <v>63763.05768177775</v>
+        <v>74759.26723981417</v>
       </c>
       <c r="D6" t="n">
-        <v>63763.05768177775</v>
+        <v>74759.2672398142</v>
       </c>
       <c r="E6" t="n">
-        <v>-136439.0024914508</v>
+        <v>76729.78918938935</v>
       </c>
       <c r="F6" t="n">
-        <v>150912.707521975</v>
+        <v>-153520.6149813936</v>
       </c>
       <c r="G6" t="n">
-        <v>150912.7075219749</v>
+        <v>172993.0627845284</v>
       </c>
       <c r="H6" t="n">
-        <v>150912.7075219749</v>
+        <v>172993.0627845283</v>
       </c>
       <c r="I6" t="n">
-        <v>43561.9185882959</v>
+        <v>128055.6335369651</v>
       </c>
       <c r="J6" t="n">
-        <v>114790.6775008817</v>
+        <v>120252.2498721189</v>
       </c>
       <c r="K6" t="n">
-        <v>177850.620099988</v>
+        <v>183312.1924712252</v>
       </c>
       <c r="L6" t="n">
-        <v>177850.6200999879</v>
+        <v>183312.1924712253</v>
       </c>
       <c r="M6" t="n">
-        <v>106494.9995812771</v>
+        <v>174554.6094760115</v>
       </c>
       <c r="N6" t="n">
-        <v>177850.6200999879</v>
+        <v>100607.9411575107</v>
       </c>
       <c r="O6" t="n">
-        <v>177850.6200999879</v>
+        <v>183312.1924712252</v>
       </c>
       <c r="P6" t="n">
-        <v>177850.620099988</v>
+        <v>183312.1924712252</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598902</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598902</v>
+        <v>325.6964302438608</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598902</v>
+        <v>325.6964302438608</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598902</v>
+        <v>325.6964302438608</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26798,28 +26798,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500129</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500129</v>
+        <v>613.8254979863033</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500129</v>
+        <v>613.8254979863033</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500129</v>
+        <v>613.8254979863033</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598902</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>290.6751695247355</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571964</v>
+        <v>52.04723397322579</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723538</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>337.6689842839478</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045426</v>
+        <v>60.46177476825221</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>35.14222482469654</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>337.6689842839478</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>337.6689842839478</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.010068377326191</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929186</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686801</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008887</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523066</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>159.396365454903</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601776</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372557</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102184</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>145.249095244978</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819838</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721639</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S11" t="n">
-        <v>23.0169331483206</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745402</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730927</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896357</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>51.0591827863292</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881677</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142346</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286401</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026663</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973817</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>103.199234025867</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092683</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057176</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S12" t="n">
-        <v>10.03832872661919</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304142</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H13" t="n">
-        <v>4.02830999450775</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I13" t="n">
-        <v>13.6254084476806</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644862</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933435</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269909</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985386</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620547</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464874</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970454</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784341</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952486</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400151</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133579</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010068377326191</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929186</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686801</v>
+        <v>50.4780366913626</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008887</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523066</v>
+        <v>166.5519891000302</v>
       </c>
       <c r="L14" t="n">
-        <v>159.396365454903</v>
+        <v>206.6224700128968</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601776</v>
+        <v>229.9073097771149</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372557</v>
+        <v>233.6274504100008</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102184</v>
+        <v>220.6077765276394</v>
       </c>
       <c r="P14" t="n">
-        <v>145.249095244978</v>
+        <v>188.2836333250452</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819838</v>
+        <v>141.3931673628009</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721639</v>
+        <v>82.24735029670724</v>
       </c>
       <c r="S14" t="n">
-        <v>23.0169331483206</v>
+        <v>29.83641167510344</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745402</v>
+        <v>5.731602506100504</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.1047465906311913</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.7005545858075498</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730927</v>
+        <v>6.765882447141337</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896357</v>
+        <v>24.11997148504064</v>
       </c>
       <c r="J15" t="n">
-        <v>51.0591827863292</v>
+        <v>66.18704531965102</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881677</v>
+        <v>113.1242025687568</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142346</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M15" t="n">
-        <v>136.9337073286401</v>
+        <v>177.5045544829041</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026663</v>
+        <v>182.2025718587802</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973817</v>
+        <v>166.6797570890445</v>
       </c>
       <c r="P15" t="n">
-        <v>103.199234025867</v>
+        <v>133.7751998109171</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092683</v>
+        <v>89.42517835676723</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057176</v>
+        <v>43.49583647671788</v>
       </c>
       <c r="S15" t="n">
-        <v>10.03832872661919</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304142</v>
+        <v>2.823726598057623</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.04608911748733882</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.58732143158729</v>
       </c>
       <c r="H16" t="n">
-        <v>4.02830999450775</v>
+        <v>5.221821455385182</v>
       </c>
       <c r="I16" t="n">
-        <v>13.6254084476806</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644862</v>
+        <v>41.5236252132214</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933435</v>
+        <v>68.23607177895968</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269909</v>
+        <v>87.31867901980493</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985386</v>
+        <v>92.06530404417855</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620547</v>
+        <v>89.87619689008054</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464874</v>
+        <v>83.01521471199261</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970454</v>
+        <v>71.03385750761184</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784341</v>
+        <v>49.18016096682299</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952486</v>
+        <v>26.40810727846123</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400151</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133579</v>
+        <v>2.509464298600238</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.03203571445021586</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.010068377326191</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929186</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686801</v>
+        <v>50.4780366913626</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008888</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523066</v>
+        <v>166.5519891000302</v>
       </c>
       <c r="L17" t="n">
-        <v>159.396365454903</v>
+        <v>206.6224700128968</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601777</v>
+        <v>229.9073097771149</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372557</v>
+        <v>233.6274504100008</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102184</v>
+        <v>220.6077765276394</v>
       </c>
       <c r="P17" t="n">
-        <v>145.249095244978</v>
+        <v>188.2836333250452</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819838</v>
+        <v>141.3931673628009</v>
       </c>
       <c r="R17" t="n">
-        <v>63.4487077072164</v>
+        <v>82.24735029670724</v>
       </c>
       <c r="S17" t="n">
-        <v>23.0169331483206</v>
+        <v>29.83641167510344</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745403</v>
+        <v>5.731602506100504</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.1047465906311913</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042922</v>
+        <v>0.7005545858075498</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730928</v>
+        <v>6.765882447141337</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896357</v>
+        <v>24.11997148504064</v>
       </c>
       <c r="J18" t="n">
-        <v>51.0591827863292</v>
+        <v>66.18704531965102</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881678</v>
+        <v>113.1242025687568</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142346</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286401</v>
+        <v>177.5045544829041</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026663</v>
+        <v>182.2025718587802</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973817</v>
+        <v>166.6797570890445</v>
       </c>
       <c r="P18" t="n">
-        <v>103.199234025867</v>
+        <v>133.7751998109171</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092685</v>
+        <v>89.42517835676723</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057176</v>
+        <v>43.49583647671788</v>
       </c>
       <c r="S18" t="n">
-        <v>10.03832872661919</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304142</v>
+        <v>2.823726598057623</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.04608911748733882</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227528</v>
+        <v>0.58732143158729</v>
       </c>
       <c r="H19" t="n">
-        <v>4.02830999450775</v>
+        <v>5.221821455385182</v>
       </c>
       <c r="I19" t="n">
-        <v>13.62540844768061</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644862</v>
+        <v>41.5236252132214</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933436</v>
+        <v>68.23607177895968</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269909</v>
+        <v>87.31867901980493</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985386</v>
+        <v>92.06530404417855</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620547</v>
+        <v>89.87619689008054</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464875</v>
+        <v>83.01521471199261</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970455</v>
+        <v>71.03385750761184</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784342</v>
+        <v>49.18016096682299</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952486</v>
+        <v>26.40810727846123</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400152</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133579</v>
+        <v>2.509464298600238</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.03203571445021586</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.010068377326191</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929186</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686801</v>
+        <v>50.4780366913626</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008887</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523066</v>
+        <v>166.5519891000302</v>
       </c>
       <c r="L20" t="n">
-        <v>159.396365454903</v>
+        <v>206.6224700128968</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601776</v>
+        <v>229.9073097771149</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372557</v>
+        <v>233.6274504100008</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102184</v>
+        <v>220.6077765276394</v>
       </c>
       <c r="P20" t="n">
-        <v>145.249095244978</v>
+        <v>188.2836333250452</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819838</v>
+        <v>141.3931673628009</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721639</v>
+        <v>82.24735029670724</v>
       </c>
       <c r="S20" t="n">
-        <v>23.0169331483206</v>
+        <v>29.83641167510344</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745402</v>
+        <v>5.731602506100504</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.1047465906311913</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.7005545858075498</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730927</v>
+        <v>6.765882447141337</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896357</v>
+        <v>24.11997148504064</v>
       </c>
       <c r="J21" t="n">
-        <v>51.0591827863292</v>
+        <v>66.18704531965102</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881677</v>
+        <v>113.1242025687568</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142346</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286401</v>
+        <v>177.5045544829041</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026663</v>
+        <v>182.2025718587802</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973817</v>
+        <v>166.6797570890445</v>
       </c>
       <c r="P21" t="n">
-        <v>103.199234025867</v>
+        <v>133.7751998109171</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092683</v>
+        <v>89.42517835676723</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057176</v>
+        <v>43.49583647671788</v>
       </c>
       <c r="S21" t="n">
-        <v>10.03832872661919</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304142</v>
+        <v>2.823726598057623</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.04608911748733882</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.58732143158729</v>
       </c>
       <c r="H22" t="n">
-        <v>4.02830999450775</v>
+        <v>5.221821455385182</v>
       </c>
       <c r="I22" t="n">
-        <v>13.6254084476806</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644862</v>
+        <v>41.5236252132214</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933435</v>
+        <v>68.23607177895968</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269909</v>
+        <v>87.31867901980493</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985386</v>
+        <v>92.06530404417855</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620547</v>
+        <v>89.87619689008054</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464874</v>
+        <v>83.01521471199261</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970454</v>
+        <v>71.03385750761184</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784341</v>
+        <v>49.18016096682299</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952486</v>
+        <v>26.40810727846123</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400151</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133579</v>
+        <v>2.509464298600238</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.03203571445021586</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
         <v>193.1674799081577</v>
@@ -32721,25 +32721,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479577</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M25" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N25" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
         <v>193.1674799081577</v>
@@ -32958,25 +32958,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
         <v>155.1528646479577</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M28" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N28" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,7 +35029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547635</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784908</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353662</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257374</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>388.162886552649</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>320.887128151277</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>235.8148076611911</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743897</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007134</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8920740070364</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378196</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>179.0764432979176</v>
+        <v>154.3230534491487</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628865</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
-        <v>379.8491252296668</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6875952514739</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.3703872434515</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301522</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416944</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4660600454341</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868841</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459803</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547635</v>
+        <v>99.17865997768854</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784908</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353662</v>
+        <v>388.51726959336</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257374</v>
+        <v>449.0746100426746</v>
       </c>
       <c r="N14" t="n">
-        <v>388.162886552649</v>
+        <v>441.5613112253941</v>
       </c>
       <c r="O14" t="n">
-        <v>320.887128151277</v>
+        <v>371.309746368698</v>
       </c>
       <c r="P14" t="n">
-        <v>235.8148076611911</v>
+        <v>278.8493457412583</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743897</v>
+        <v>131.4024681482561</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>50.31259146007134</v>
+        <v>65.44045399339316</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8920740070364</v>
+        <v>239.7480006069765</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378196</v>
+        <v>357.8242957354347</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566217</v>
+        <v>501.0755843108857</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5585973628865</v>
+        <v>530.2032341190004</v>
       </c>
       <c r="O15" t="n">
-        <v>379.8491252296668</v>
+        <v>417.9458319213296</v>
       </c>
       <c r="P15" t="n">
-        <v>6.259301392769931</v>
+        <v>318.263561036524</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.3703872434515</v>
+        <v>45.96657995307683</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301522</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6065244416944</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4660600454341</v>
+        <v>134.0083692693091</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868841</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459803</v>
+        <v>68.31241677250533</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547637</v>
+        <v>99.17865997768854</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784908</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353662</v>
+        <v>388.51726959336</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257374</v>
+        <v>449.0746100426746</v>
       </c>
       <c r="N17" t="n">
-        <v>388.162886552649</v>
+        <v>441.5613112253941</v>
       </c>
       <c r="O17" t="n">
-        <v>320.887128151277</v>
+        <v>371.309746368698</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611911</v>
+        <v>278.8493457412583</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743898</v>
+        <v>131.4024681482561</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.31259146007135</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>213.8920740070364</v>
+        <v>239.7480006069765</v>
       </c>
       <c r="L18" t="n">
-        <v>68.20063827911544</v>
+        <v>384.3954162709655</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566217</v>
+        <v>501.0755843108857</v>
       </c>
       <c r="N18" t="n">
-        <v>488.5585973628865</v>
+        <v>530.2032341190004</v>
       </c>
       <c r="O18" t="n">
-        <v>379.8491252296668</v>
+        <v>417.9458319213296</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6875952514739</v>
+        <v>318.263561036524</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.0814686107544</v>
+        <v>38.86933345786267</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.3703872434515</v>
+        <v>45.96657995307683</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301522</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416944</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N19" t="n">
-        <v>113.4660600454341</v>
+        <v>134.0083692693091</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868843</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459804</v>
+        <v>68.31241677250533</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547635</v>
+        <v>99.17865997768854</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784908</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353662</v>
+        <v>388.51726959336</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257374</v>
+        <v>449.0746100426746</v>
       </c>
       <c r="N20" t="n">
-        <v>388.162886552649</v>
+        <v>441.5613112253941</v>
       </c>
       <c r="O20" t="n">
-        <v>320.887128151277</v>
+        <v>371.309746368698</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611911</v>
+        <v>278.8493457412583</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743897</v>
+        <v>131.4024681482561</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>239.7480006069765</v>
       </c>
       <c r="L21" t="n">
-        <v>332.4053037462232</v>
+        <v>384.3954162709655</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566217</v>
+        <v>501.0755843108857</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628865</v>
+        <v>530.2032341190004</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296668</v>
+        <v>417.9458319213296</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514739</v>
+        <v>318.263561036524</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.0814686107544</v>
+        <v>38.86933345786267</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.3703872434515</v>
+        <v>45.96657995307683</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301522</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416944</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N22" t="n">
-        <v>113.4660600454341</v>
+        <v>134.0083692693091</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868841</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459803</v>
+        <v>68.31241677250533</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M25" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N25" t="n">
         <v>148.370846145888</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M28" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N28" t="n">
         <v>148.370846145888</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
